--- a/airbnb_links.xlsx
+++ b/airbnb_links.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A91"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,637 +434,261 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/548511185795259726?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-08-04&amp;check_out=2024-08-09&amp;source_impression_id=p3_1713035253_JUwa9zONUFmdYaqs&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/1020335158462184548?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713045608_3902B8K5bZqFjEcn&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/603456898367481704?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-07-08&amp;check_out=2024-07-13&amp;source_impression_id=p3_1713035253_gaSlL0y7ws1iNYtT&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/1009566648647137410?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_EouCrEMkuLpdPGiX&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/856743058119048061?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713035253_U%2FGoT%2FsZxVN4nbch&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/542839923897593015?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-15&amp;check_out=2024-06-20&amp;source_impression_id=p3_1713045608_LbGuRoEuuuMnDn0g&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/46656816?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-20&amp;check_out=2024-05-25&amp;source_impression_id=p3_1713035253_vv8IKgU6guQkAWqZ&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/53384543?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-23&amp;check_out=2024-06-28&amp;source_impression_id=p3_1713045608_c8GmwUxm7lt3OpDi&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/51323919?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713035253_p%2B%2F8TQCTb5MJZcj5&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/773147981612003864?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_X%2FqmM%2Bv8GRFebvGb&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/53687648?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713035253_T%2FqsOuBWiyKfj5gf&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/821074882229242414?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_WpRc0EBaVQ5jKCc9&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/40471149?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713035253_6%2F0AkbHpl%2BJWyGEr&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/1131087617071321871?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713045608_VqTkSq4aT2NB%2BVCE&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/1034158207918896058?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-13&amp;check_out=2024-05-18&amp;source_impression_id=p3_1713035253_XeArbgVsz7nItEqB&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/1106156830492675638?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713045608_WMuX9oSg9A2EN5pt&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/989923661855551391?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-06&amp;check_out=2024-05-11&amp;source_impression_id=p3_1713035253_OXHM%2FFd3%2F939flrj&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/53124876?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713045608_UPEbP0i7s9igvbfu&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/790025011931710526?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-17&amp;check_out=2024-06-22&amp;source_impression_id=p3_1713035253_cQzPNfBIev1ehNMc&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/666677274205228165?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-11&amp;check_out=2024-05-16&amp;source_impression_id=p3_1713045608_e%2FNZDxUcBIMZ%2BMHL&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/994077022830227160?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713035253_2WIz6Du2rd1emEjF&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/1118255911433979356?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713045608_y5D4PWRfNwsm3I1m&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/558826315588851927?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713035253_xGgHPcjHc75QJEkx&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/1132790847570388215?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-19&amp;check_out=2024-04-24&amp;source_impression_id=p3_1713045608_l%2FN70f5LTxa%2BA2cg&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/618743907165290239?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-16&amp;check_out=2024-04-21&amp;source_impression_id=p3_1713035253_DF%2BBehYB6fcohEzf&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/23558010?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_ZDWxl09lJgVecyF7&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/810121167313938313?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713035253_YjirCwIHTl1ix7OM&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/756339686140252259?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713045608_gSbi0YMSvZS%2BxEgI&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/51153114?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713035253_vit1mHb%2BxefXwez8&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/1118127256240540208?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_byz2PxXwKSr2QHoN&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/656006729701917207?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-10&amp;check_out=2024-06-15&amp;source_impression_id=p3_1713035253_AlD5EvboMxbw7j7B&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/1084782117694690075?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_aHhFaACnQkTV%2BZ4u&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/50785614?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-12&amp;check_out=2024-05-17&amp;source_impression_id=p3_1713035253_92%2FBL4OzTa4NqrhV&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/1132516366058569482?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-25&amp;check_out=2024-04-30&amp;source_impression_id=p3_1713045608_99%2Bso3Kc3fD1py0r&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/633187960326501478?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713035253_QlYUPTrZDvx3ljma&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/966649831012013786?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_HotP7Ppx9mM1xUUK&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/52712945?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713035257_FSC8wB%2FLt9OKJqd4&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/21455771?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045612_xlFwriz4M8xoF6QW&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/892607265333811710?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-13&amp;check_out=2024-05-19&amp;source_impression_id=p3_1713035258_Gzc9I1IVCz%2B%2FI7xx&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/6130326?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713045612_VTABYvKr2wEvG8GZ&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/553787249583094865?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-01&amp;check_out=2024-06-06&amp;source_impression_id=p3_1713035258_DdKY6760QeI7IEQN&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/963979217069402247?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713045612_9a3zJyJDBj%2F10EtN&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/49397412?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-06&amp;check_out=2024-05-11&amp;source_impression_id=p3_1713035258_eHZXQXGfWqy0oH2q&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/40038805?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-19&amp;check_out=2024-04-24&amp;source_impression_id=p3_1713045612_%2BYERQG5VIm%2FHxujV&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/866675968304362157?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713035258_q5lzvtEjNH58z5Lg&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/814451640301553924?adults=1&amp;category_tag=Tag%3A8678&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;photo_id=1576376149&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713045612_a9mZLCY9fmc45J4q&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/763266522563963556?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-13&amp;check_out=2024-04-18&amp;source_impression_id=p3_1713035258_Omb7zsYlu308hY4t&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/972600498234884440?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045612_j1%2F%2Fr1X5TIhPS40o&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/1010708793639120628?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-12&amp;check_out=2024-05-17&amp;source_impression_id=p3_1713035258_8t0fJkKU8bcAI%2FP%2F&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/1086898903257649436?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713045612_x1lJDxP7wddzD1Bd&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/876969383725538869?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-12&amp;check_out=2024-05-17&amp;source_impression_id=p3_1713035258_VyjLPzz6UFjOiyIO&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/31334042?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713045612_60lrbeWlyKtujLxH&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/897136898824797746?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713035258_BQ82xvBPo6fM4v7k&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/1107267021920740891?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-16&amp;check_out=2024-04-21&amp;source_impression_id=p3_1713045612_GbHRB7TPFf2q9h5K&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/726900795510584674?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-19&amp;check_out=2024-05-24&amp;source_impression_id=p3_1713035258_5YpQ8WgZ8XJ4sNkr&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/42915009?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713045612_%2BjUVmRu54kZi09et&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/945485242137718553?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-13&amp;check_out=2024-04-18&amp;source_impression_id=p3_1713035258_OopGYtTfzr0KVvyn&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/46710604?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713045612_VusSrCT%2BNqCmM7vu&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/978098682003113408?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713035258_QPTcaMig%2BnjrYeLu&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/38264279?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-18&amp;check_out=2024-06-23&amp;source_impression_id=p3_1713045612_j2iO5EWFwdRcVCfR&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/49707955?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-23&amp;check_out=2024-04-28&amp;source_impression_id=p3_1713035258_XLw9Mtr4Nxu6CWgD&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/1127565170281761530?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-24&amp;check_out=2024-04-29&amp;source_impression_id=p3_1713045612_RbqOdZyvmJOC3BUI&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/629091545752925948?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713035258_1xGdhyj2C7QCKidK&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/893661000513933734?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713045612_jeHkcCJ0%2F5MqbsOD&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/776138434360639083?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713035258_nsYkug1bURQTnYP2&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/1005007592929233716?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713045612_Q7qApxQyw2DmMGc6&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/964432194581215866?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-23&amp;check_out=2024-04-28&amp;source_impression_id=p3_1713035258_qg6iVcTLov6EEzV0&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/752804197241316083?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045612_4PM3A7KmxvFXz0S0&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/1043569036827493626?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-06&amp;check_out=2024-05-11&amp;source_impression_id=p3_1713035258_PsmtqFBCtj0InOWT&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/997766725335011524?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713045612_1pRTYHc7U1GSZHJu&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/846361539907027890?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-17&amp;check_out=2024-04-22&amp;source_impression_id=p3_1713035258_a9dR0cVRukdsv7c%2B&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/629091545752925948?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713035261_XChEve8dHIBPkHeH&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/45328286?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-16&amp;check_out=2024-04-21&amp;source_impression_id=p3_1713035261_nufi0Ox7byW5Z8gI&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/588194697341510114?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713035261_5lndnygZsu79psYO&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/846361539907027890?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-17&amp;check_out=2024-04-22&amp;source_impression_id=p3_1713035261_cj04%2Fio%2BhQcPkOsJ&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/690270492187136289?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713035261_koyHRwilNTtajz8q&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/559124093510624070?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-19&amp;check_out=2024-04-24&amp;source_impression_id=p3_1713035261_tCMXqbmJjZXxL%2Fic&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/48403014?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713035261_6YE5qMAY6MmMut6f&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/665268791126053899?adults=1&amp;category_tag=Tag%3A8678&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;photo_id=1444067108&amp;check_in=2024-05-06&amp;check_out=2024-05-11&amp;source_impression_id=p3_1713035261_QN2kJb22fx%2Bz%2F%2B6D&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/4795458?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713035261_L11eDAlX7uxBPgLl&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/993397989597398124?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713035261_AqZpCD5DFpcsauR2&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/52389819?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-13&amp;check_out=2024-04-18&amp;source_impression_id=p3_1713035261_ppfB05yCMkt0pQcY&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/523346182827720005?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713035261_oo1UmY9A%2Bx%2FGDSQr&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/49505201?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713035261_Ql9DhoEkdzSKE7KE&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/922648329770626479?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713035261_JxsvqhGhHFDyh0Vk&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/53558919?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713035261_yH0Cbe830bWqRQg5&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/50385530?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713035261_bZWAE1iAQMxVUWO7&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/1037809910742245779?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713035261_AJciKHhcYiIzfrYb&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/44192846?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713035261_tcU3YMKbJ1o5pPA4&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/1126700937533714377?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-20&amp;check_out=2024-04-25&amp;source_impression_id=p3_1713035264_XG9OIZRXfBH4T%2Fy5&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/1112011796454712215?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-02&amp;check_out=2024-06-07&amp;source_impression_id=p3_1713035265_rFRzJjIYFpprN7Uu&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/1111536951031750653?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713035265_F7Ujlni9ZUX7KJjy&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/993403793412281588?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713035265_dnBQYEoPoRqRtvLB&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/544142168533418261?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-20&amp;check_out=2024-04-25&amp;source_impression_id=p3_1713035265_N4rRDYTeNJSP0A3d&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/52075543?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713035265_TI1jfHSf2svWjAqX&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/34712532?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713035265_OKIpeZjroml%2BygAL&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/566764454741826879?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713035265_6mnY0jE%2F500Exy3o&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/53770229?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713035265_PjatZadQgAVdYERh&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/43222978?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-13&amp;check_out=2024-04-18&amp;source_impression_id=p3_1713035265_sfMFlGaMev66v%2F6%2B&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/1077590859700584876?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-19&amp;check_out=2024-04-24&amp;source_impression_id=p3_1713035265_RPO%2BOH7zFW6bccoj&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/930391645885975082?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713035265_AkA5L9gIKQO4O8Es&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/47828504?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713035265_2X3eRJEMmOrA34kr&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/651681677407389430?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-02&amp;check_out=2024-05-07&amp;source_impression_id=p3_1713035265_MCqulV%2FOqx%2Bz7JP8&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/927752163968868508?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713035265_08Ka5In0B4eMSwok&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/834950107050355206?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-23&amp;check_out=2024-04-28&amp;source_impression_id=p3_1713035265_PQKhEQ%2F9VhbHRqe3&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/1027516563263116436?adults=1&amp;category_tag=Tag%3A8678&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;photo_id=1783505191&amp;check_in=2024-04-13&amp;check_out=2024-04-18&amp;source_impression_id=p3_1713035265_8g5RA0kBtVOJgjtv&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/39980673?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-16&amp;check_out=2024-04-21&amp;source_impression_id=p3_1713035265_j6s0OMIGjQZ1cnqm&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/20935252?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713035268_Z7%2FfYcw8uAPlyc0Z&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/50911211?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713035268_50yQacBFC7ai9X0k&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/53435246?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713035268_k9zHmhDRxTJLYg%2Fd&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/820332026138532016?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-13&amp;check_out=2024-04-18&amp;source_impression_id=p3_1713035268_UcXisG50SPovFc5M&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/980574875258835670?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713035268_ZVPXzAx9MgEGTU%2Br&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/1105863466802689225?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713035268_VwJblquyXH55pCAW&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/42190505?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713035268_5rqlFV4Da%2B4r%2FCJI&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/632519838704764418?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713035268_T5zwpJ9YmZ7TAC1r&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/876710207424057759?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713035268_ZH8AJQDh%2FtbD7ugx&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/985642991466082488?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-20&amp;check_out=2024-04-25&amp;source_impression_id=p3_1713035268_JrO3CZKoylxkuz1p&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/1064409994141595651?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713035268_vGVyvUUdKlnbeT%2Bf&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/44999162?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713035268_SO8ptkSFTOofbo31&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/31334042?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713035268_yrA5S0rV3ETsCzlG&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/898571722744580060?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-02&amp;check_out=2024-05-07&amp;source_impression_id=p3_1713035268_cqfDd8lY4veu0HeB&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/1087865320070049756?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713035268_WxNost337ttlvNje&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/720974585407854340?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-13&amp;check_out=2024-04-18&amp;source_impression_id=p3_1713035268_Luk1JK2wr4Snef6%2B&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/988256655904505469?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713035268_Mo2cSGRtky6qyZy7&amp;previous_page_section_name=1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>www.airbnb.com.br/rooms/1124705594007537962?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713035268_bcoeOwsKmpw57Wwc&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/20235128?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713045612_NPdILII0rs6%2Bqroj&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>

--- a/airbnb_links.xlsx
+++ b/airbnb_links.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,252 +443,1260 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/1020335158462184548?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713045608_3902B8K5bZqFjEcn&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/780235587676547784?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-07-21&amp;check_out=2024-07-26&amp;source_impression_id=p3_1713133356_R2t5mKdFYQ54khFM&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/1009566648647137410?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_EouCrEMkuLpdPGiX&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/1023103861838603101?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133356_4DXT60PRUe9ewOmZ&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/542839923897593015?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-15&amp;check_out=2024-06-20&amp;source_impression_id=p3_1713045608_LbGuRoEuuuMnDn0g&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/45525385?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713133356_pduXGd1SODLlZcPe&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/53384543?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-23&amp;check_out=2024-06-28&amp;source_impression_id=p3_1713045608_c8GmwUxm7lt3OpDi&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/46656816?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-20&amp;check_out=2024-05-25&amp;source_impression_id=p3_1713133356_SMJI4%2FhdVjJVLkeH&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/773147981612003864?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_X%2FqmM%2Bv8GRFebvGb&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/656006729701917207?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-10&amp;check_out=2024-06-15&amp;source_impression_id=p3_1713133356_xgjmRb7j%2FMQfUy7s&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/821074882229242414?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_WpRc0EBaVQ5jKCc9&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/51323919?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713133356_tGowxnheK7J8uHCz&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/1131087617071321871?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713045608_VqTkSq4aT2NB%2BVCE&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/50785614?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-12&amp;check_out=2024-05-17&amp;source_impression_id=p3_1713133356_91tfo16dooIlyT4z&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/1106156830492675638?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713045608_WMuX9oSg9A2EN5pt&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/51153114?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713133356_c%2Fa1FXh76HEFMjK7&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/53124876?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713045608_UPEbP0i7s9igvbfu&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/51499193?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133356_NjPw6w9ZciIARNnz&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/666677274205228165?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-11&amp;check_out=2024-05-16&amp;source_impression_id=p3_1713045608_e%2FNZDxUcBIMZ%2BMHL&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/921029245112867864?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133356_aptBLAc5Dp6mEiWg&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/1118255911433979356?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713045608_y5D4PWRfNwsm3I1m&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/790025011931710526?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-17&amp;check_out=2024-06-22&amp;source_impression_id=p3_1713133356_lg9aYhFubPLt2hdV&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/1132790847570388215?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-19&amp;check_out=2024-04-24&amp;source_impression_id=p3_1713045608_l%2FN70f5LTxa%2BA2cg&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/989923661855551391?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-06&amp;check_out=2024-05-11&amp;source_impression_id=p3_1713133356_snWE%2FszOOoD8%2BR%2Fk&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/23558010?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_ZDWxl09lJgVecyF7&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/726900795510584674?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-19&amp;check_out=2024-05-24&amp;source_impression_id=p3_1713133356_i81YpzkCWE4uQUZ3&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/756339686140252259?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713045608_gSbi0YMSvZS%2BxEgI&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/769690939281827997?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-06&amp;check_out=2024-05-11&amp;source_impression_id=p3_1713133356_6npcFkvNkExEgBuM&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/1118127256240540208?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_byz2PxXwKSr2QHoN&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/1010708793639120628?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-12&amp;check_out=2024-05-17&amp;source_impression_id=p3_1713133356_hC%2FnEyiTxEH6a77f&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/1084782117694690075?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_aHhFaACnQkTV%2BZ4u&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/44335458?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-08&amp;check_out=2024-05-13&amp;source_impression_id=p3_1713133356_hWdHv%2B183B5w9uZN&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/1132516366058569482?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-25&amp;check_out=2024-04-30&amp;source_impression_id=p3_1713045608_99%2Bso3Kc3fD1py0r&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/763266522563963556?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133356_hHyleGGwoJXXoPiT&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/966649831012013786?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045608_HotP7Ppx9mM1xUUK&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/1080716028853257155?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133356_%2FJZsm7Yx4fI09XsQ&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/21455771?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045612_xlFwriz4M8xoF6QW&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/663137824353330032?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133360_QQDUTQ%2FusRh%2BgoID&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/6130326?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713045612_VTABYvKr2wEvG8GZ&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/896380265814020430?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713133360_Ts%2BQ%2BUkUvYl34jfB&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/963979217069402247?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713045612_9a3zJyJDBj%2F10EtN&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/965409498801941663?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133360_28y7ulgHADIUABw1&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/40038805?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-19&amp;check_out=2024-04-24&amp;source_impression_id=p3_1713045612_%2BYERQG5VIm%2FHxujV&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/970553718997103031?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713133360_21SxIZHg87sWAADO&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/814451640301553924?adults=1&amp;category_tag=Tag%3A8678&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;photo_id=1576376149&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713045612_a9mZLCY9fmc45J4q&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/810121167313938313?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133360_oqnu4QUUgOFXGzEI&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/972600498234884440?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045612_j1%2F%2Fr1X5TIhPS40o&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/994077022830227160?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133360_MLbVt2ET8u8jerKz&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/1086898903257649436?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713045612_x1lJDxP7wddzD1Bd&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/633187960326501478?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-18&amp;check_out=2024-04-23&amp;source_impression_id=p3_1713133360_yUNIKKH3vBmTsnVS&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/31334042?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713045612_60lrbeWlyKtujLxH&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/1043569036827493626?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-06&amp;check_out=2024-05-11&amp;source_impression_id=p3_1713133360_si40BiX8ZkBcgwl0&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/1107267021920740891?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-16&amp;check_out=2024-04-21&amp;source_impression_id=p3_1713045612_GbHRB7TPFf2q9h5K&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/43222978?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-10&amp;check_out=2024-05-15&amp;source_impression_id=p3_1713133360_S4Sq1gvSx2wK9sc7&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/42915009?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713045612_%2BjUVmRu54kZi09et&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/638518196363778256?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-13&amp;check_out=2024-05-18&amp;source_impression_id=p3_1713133360_pw2J6N8Xl%2F%2FL%2FsUr&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/46710604?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713045612_VusSrCT%2BNqCmM7vu&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/588194697341510114?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133360_bWV9Rqk0oSl%2BBVpq&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/38264279?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-18&amp;check_out=2024-06-23&amp;source_impression_id=p3_1713045612_j2iO5EWFwdRcVCfR&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/988227138436583784?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-17&amp;check_out=2024-04-22&amp;source_impression_id=p3_1713133360_OH2SHwzfjmfP62xL&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/1127565170281761530?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-24&amp;check_out=2024-04-29&amp;source_impression_id=p3_1713045612_RbqOdZyvmJOC3BUI&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/977701018554701671?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-26&amp;check_out=2024-05-31&amp;source_impression_id=p3_1713133360_hqQRwUiu2k4Fc%2FnC&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/893661000513933734?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713045612_jeHkcCJ0%2F5MqbsOD&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/48901200?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133360_GgfN8I8JoVkgK%2FQD&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/1005007592929233716?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713045612_Q7qApxQyw2DmMGc6&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/945485242137718553?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133360_5UNTBQT9oVTY6Wwb&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/752804197241316083?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713045612_4PM3A7KmxvFXz0S0&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/559124093510624070?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-19&amp;check_out=2024-04-24&amp;source_impression_id=p3_1713133360_eaoLsgr0dJF4RPsH&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/997766725335011524?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713045612_1pRTYHc7U1GSZHJu&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/48169574?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133360_I0ZOtx4AQDrwNhAt&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>www.airbnb.com.br/rooms/20235128?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713045612_NPdILII0rs6%2Bqroj&amp;previous_page_section_name=1000</t>
+          <t>www.airbnb.com.br/rooms/52401688?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133360_CBX42ZwvGs5OM0Es&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/713587829203171943?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133364_wY0LdHxbRAU%2FE4hE&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/42850137?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133364_ZBHHOJqJOhh9UBSY&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/651681677407389430?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-02&amp;check_out=2024-05-07&amp;source_impression_id=p3_1713133364_%2FAxMzc%2B7WcFCcBIU&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1126700937533714377?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-20&amp;check_out=2024-04-25&amp;source_impression_id=p3_1713133364_OKs3u0Pq0oOpsiL8&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/50993020?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713133364_DcAQCDXEXcbexR2%2F&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1077590859700584876?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-19&amp;check_out=2024-04-24&amp;source_impression_id=p3_1713133364_%2Fgs8XR%2F%2FlvTzo5TW&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/523346182827720005?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133364_Fy1Q5EMf9bsOftVb&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/53770229?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133364_IU5oTbZV72t8OqAu&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/50911211?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713133364_AVkxyQFP5jTvCw01&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/48403014?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133364_eFw0fCL97s%2FdifT1&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/20935252?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133364_uoKa%2BaBUYXtwwXBU&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/746472180104259874?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-19&amp;check_out=2024-05-24&amp;source_impression_id=p3_1713133364_yCboLDWrh6kyDxH%2B&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/993403793412281588?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133364_ShZvC84NWIiIYF9k&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/787050674026213890?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-25&amp;check_out=2024-04-30&amp;source_impression_id=p3_1713133364_zizipA1M1N8eO77g&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1037809910742245779?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133364_atgN1QOy1O5aMETF&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/48865958?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-25&amp;check_out=2024-04-30&amp;source_impression_id=p3_1713133364_Ong%2FRqbOGvztqPsz&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/53558919?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133364_n5h1XYxl%2FcU6eMCL&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/32414763?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133364_ztq178%2FHiMNK1hKP&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/52389819?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133367_GxWEaUcJoeUlDeug&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/922648329770626479?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133367_thZHgd%2FfLgUo28yN&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1112011796454712215?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-02&amp;check_out=2024-06-07&amp;source_impression_id=p3_1713133367_vkTdYSg7pLHxWsOm&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/993403793412281588?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133367_zmnGWlW9nR0z0x0y&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/42536134?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-03&amp;check_out=2024-05-08&amp;source_impression_id=p3_1713133367_PDOFYsT3BTXNcxN4&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1132715618441526862?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133367_D68FXGqzO6xbjh%2FU&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/544142168533418261?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-20&amp;check_out=2024-04-25&amp;source_impression_id=p3_1713133367_rhy5GjWsuxsHgpr0&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/665268791126053899?adults=1&amp;category_tag=Tag%3A8678&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;photo_id=1444067108&amp;check_in=2024-05-06&amp;check_out=2024-05-11&amp;source_impression_id=p3_1713133367_4Ni1YUE%2B3plSV4M0&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/20935252?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133367_cYgM6wlFQKuLktbh&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1111536951031750653?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133367_dqbUdUbcbvwnYcMn&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/997864101866521776?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133367_hriYjg3CjGnE2pU1&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/50385530?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133367_sD4pYTJ7K16FFTqY&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/898482973431673491?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-02&amp;check_out=2024-05-07&amp;source_impression_id=p3_1713133367_CE2fmFP8GGdiYjSH&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/749799959279247409?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-23&amp;check_out=2024-05-28&amp;source_impression_id=p3_1713133367_YJOLIEv54iH%2BlKwP&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/39980673?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-30&amp;check_out=2024-05-05&amp;source_impression_id=p3_1713133367_7iC0BTks%2Fz%2FMJSRt&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/37287443?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133367_AynfKOIzP7qFfnod&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/898571722744580060?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-02&amp;check_out=2024-05-07&amp;source_impression_id=p3_1713133367_FKDnRMiAt4LRuyZJ&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/4795458?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133367_wHKSbvrELX57lBhU&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/52141458?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-03&amp;check_out=2024-05-08&amp;source_impression_id=p3_1713133371_jrOO028XkaftDXp2&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/775258024486932180?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-18&amp;check_out=2024-04-23&amp;source_impression_id=p3_1713133371_aDxrtZ5BxXLs0kGb&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1010306963510659938?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133371_W6q9s9R98h33MmuQ&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/862272865914039638?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-17&amp;check_out=2024-04-22&amp;source_impression_id=p3_1713133371_sgJkABxamQpVsRhw&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/39320210?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133371_tyWynLdbBc8%2FXFi2&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/992251228778186937?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133371_gDEvzA%2BY1YnaqMAO&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/815302729083135727?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133371_J%2BuGZFoWUj%2FKYIFy&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1116041450244111296?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133371_E4GZ%2Fdy7yobp%2Blb4&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/51076966?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-03&amp;check_out=2024-06-08&amp;source_impression_id=p3_1713133371_EWZzJYdjSm2cRcvV&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1126909690370480579?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133371_uC3g4KBPlssiI5Iq&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/46526631?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133371_MWFLL7aJxDbnbvmF&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/6130326?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133371_y2ulb2N60AdST7ke&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/761099166890775777?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133371_OE%2BE49S3e0PSbvYA&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/49793555?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133371_Cw%2FFYWiI%2Bh4SXsV7&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/46637392?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-19&amp;check_out=2024-04-24&amp;source_impression_id=p3_1713133371_PhvMRjzDpsu5%2BXw0&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1012473476710413574?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713133371_CiX%2FfXcFXEl0L6NO&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1082643511933100804?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-19&amp;check_out=2024-05-24&amp;source_impression_id=p3_1713133371_CZt1zGyoYusXBwDW&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/720974585407854340?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133371_4gzKT8pAYI8kuEP5&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1111604228738060216?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713133375_h4ArK5NU8wlMNeul&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/52104274?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133375_88Pf8vhDQTzV2dJZ&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1105678903819759771?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133375_3%2Byd%2BfWnz7G6hsv1&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1107267021920740891?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-16&amp;check_out=2024-04-21&amp;source_impression_id=p3_1713133375_lf%2FkBJt71TOlkUyw&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1126118903808634086?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133375_Pu%2BQA%2B7ONw26c7wz&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1063090915162869547?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133375_NoHN3JGZO%2FlOZbeH&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/550829830660386060?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133375_%2BnG5CtCLLeCePnA%2B&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1115789555308084152?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133375_KhFFhJS1iIBo1dJo&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/805744881034921141?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133375_Vl1MYkw%2BPfh5SuRU&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1128395620338015441?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-30&amp;check_out=2024-06-04&amp;source_impression_id=p3_1713133375_0qUu1qh%2B1mi54bvA&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/49143796?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133375_MJSkOrgBI8jO5l78&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/30346078?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133375_A%2FUcn74HM17jv%2BTW&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/50320917?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-12&amp;check_out=2024-05-17&amp;source_impression_id=p3_1713133375_LbyGkus%2F10dBro8u&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/901314577350733782?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133375_qjw6nFe2AYhN%2Fvm4&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/39950793?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-16&amp;check_out=2024-04-21&amp;source_impression_id=p3_1713133375_GS4U4BebGxvdQVw8&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1055597774232669885?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133375_TXy5cQbiSouQsPgX&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/949122648724718554?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133375_JemXdWjQOmNAaCVM&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/51176315?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-27&amp;check_out=2024-05-02&amp;source_impression_id=p3_1713133375_67nuix%2FCU8fGPsix&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1036396597827869576?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133378_Pbnod9xNaDj%2Fj%2BDg&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/16822662?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133378_vY683gyV%2FWWjXu89&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1087865320070049756?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133378_d9kkI%2BNwDXywS66V&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/52221462?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133379_PjIFpUAkPF85qY0C&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/635997920878586114?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133379_CPvOszbFdp%2B2x3YC&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1006000557049248002?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-20&amp;check_out=2024-04-25&amp;source_impression_id=p3_1713133379_xU3Qf55pxBxLPKdL&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/39088477?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133379_MeKnrYbJHoyoxfrD&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/50770068?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133379_GcgJ4jp3%2BYhSv8jG&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1122045841621049285?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133379_Ef3WHHvRJ3tazKYE&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/699045280238096090?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133379_HEv8425ljfwNtc5y&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1104595681502449386?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-27&amp;check_out=2024-05-02&amp;source_impression_id=p3_1713133379_LjJ8yePty0Swvi3K&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/46336944?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133379_6GysBxUrNrZVDAr0&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/43457804?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-30&amp;check_out=2024-05-05&amp;source_impression_id=p3_1713133379_aW7sgg1P0bv9liAt&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1127565170281761530?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-24&amp;check_out=2024-04-29&amp;source_impression_id=p3_1713133379_NaA9CI4WrH3d0zce&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/50038292?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133379_NheE69LXWMWMrygw&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/52986812?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-17&amp;check_out=2024-04-22&amp;source_impression_id=p3_1713133379_%2FmhiMQZatOp%2FbwOj&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/50268607?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133379_AvUcslKFmvPcAWPD&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1129642882548622529?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133379_JfxID2mCFmWw8epv&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/573221082228757147?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-25&amp;check_out=2024-04-30&amp;source_impression_id=p3_1713133382_5me8v8hmgi%2B6j55I&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1005007592929233716?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713133382_OveJ6K96DNsEYupe&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1065974492234297018?adults=1&amp;category_tag=Tag%3A8678&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;photo_id=1817602140&amp;check_in=2024-04-26&amp;check_out=2024-05-01&amp;source_impression_id=p3_1713133382_%2Fd7fbbepJ3YzdD5B&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1055318850749857213?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133382_G7TqcewLK4Gcg42a&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/685337400786476532?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-26&amp;check_out=2024-05-01&amp;source_impression_id=p3_1713133382_RhP9pWhmY6UU3qt9&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1087574140202126869?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133382_zMNN2CcTE3W6PJfV&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/17261000?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133382_fyeK7qyRX856zCgk&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/623262994809361103?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-19&amp;check_out=2024-05-24&amp;source_impression_id=p3_1713133382_47AUkfwpRbqxrP1U&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/603017509386955216?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-25&amp;check_out=2024-04-30&amp;source_impression_id=p3_1713133382_f777vfI8Cbov8De1&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/905843455951090673?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133382_m10%2BpDnu%2BTm5wUT3&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/49604999?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-22&amp;check_out=2024-04-27&amp;source_impression_id=p3_1713133382_IHKUInj0HzLsdKAB&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1060235003234042893?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-02&amp;check_out=2024-06-07&amp;source_impression_id=p3_1713133382_OaZHqeh%2FTlESa1LZ&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/790372197230440621?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133382_Cpxu%2FqSmPfx6eXPK&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1091839556748132274?adults=1&amp;category_tag=Tag%3A8678&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;photo_id=1843047903&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713133382_UftFgPUgUZrAz3w9&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/53805864?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133382_Clf6ipbjPwluHqoV&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/997766725335011524?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713133382_kZOC3RUGJgiAHpwt&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/48292684?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-13&amp;check_out=2024-05-20&amp;source_impression_id=p3_1713133382_crZtwjFdKficHCce&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/659412938411923831?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-26&amp;check_out=2024-05-01&amp;source_impression_id=p3_1713133382_amAkVYCg5Qh2zUr9&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/48832271?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133386_mNLFMsZd4xF7mR2u&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/786834345493260248?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133386_dwZRXaHAf8ePSHXr&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1131192598071150208?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133386_hl7s5AVgqUbErb%2Bn&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/48186964?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-24&amp;check_out=2024-04-29&amp;source_impression_id=p3_1713133386_XIKU7Lryp%2Fxti3%2Bg&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/597220620597090050?adults=1&amp;category_tag=Tag%3A8678&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;photo_id=1478260217&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133386_NjTyRu1akA%2FkCLiq&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1110484434489402574?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133386_8YmOFd34fcmLHvEd&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/577549434725587999?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-28&amp;check_out=2024-05-03&amp;source_impression_id=p3_1713133386_WiNzUVs3M35QYe9M&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/577641182041994576?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133386_0Yj%2Fe5Ltr1mbgztt&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/652841762294255893?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-25&amp;check_out=2024-04-30&amp;source_impression_id=p3_1713133386_KsJt8kZIXJoGKTFq&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/890602063781994456?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133386_bz9QkgslKLI70vqK&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/22830610?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133386_gNMwGiBASQEy2oh5&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/40529946?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-03&amp;check_out=2024-06-08&amp;source_impression_id=p3_1713133386_%2BSJnu1ACbu4BhEab&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1033505777247319330?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133386_xVm8jrdZt2IuMm1Z&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/52770845?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-10&amp;check_out=2024-06-15&amp;source_impression_id=p3_1713133386_EItp6NXst8SkpyoT&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/53124876?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133386_oQXRsVXo%2Fhywpgo9&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/721595472057781982?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-17&amp;check_out=2024-04-22&amp;source_impression_id=p3_1713133386_NmWcG3%2Fp8YvVpXlr&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1106156830492675638?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133386_ft4M3SIhGoURtJqB&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1007840322694734013?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-01&amp;check_out=2024-05-06&amp;source_impression_id=p3_1713133386_Wp0fEAhpUdFRH3Rt&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/22830610?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133389_cOkwqk7Ykc5bz03p&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/40529946?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-03&amp;check_out=2024-06-08&amp;source_impression_id=p3_1713133389_daVzDOyliR4aMsr7&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/52770845?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-06-10&amp;check_out=2024-06-15&amp;source_impression_id=p3_1713133389_HonyUtKGBmvux5wT&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/721595472057781982?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-17&amp;check_out=2024-04-22&amp;source_impression_id=p3_1713133389_KXUXgVDiqB2yS%2BVk&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1051537509637818601?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133389_V%2BVTapmMVbzLz1mJ&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1106156830492675638?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-29&amp;check_out=2024-05-04&amp;source_impression_id=p3_1713133389_j5aZSy4jIAgvEIz0&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1007840322694734013?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-01&amp;check_out=2024-05-06&amp;source_impression_id=p3_1713133389_29s5UycyzY8KnNOM&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/638117735601439301?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-26&amp;check_out=2024-05-01&amp;source_impression_id=p3_1713133389_JPsrWF%2FSS8FgoCeV&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/51693656?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133389_jx6hH7RQ4G9glsZC&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/53124876?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-21&amp;check_out=2024-04-26&amp;source_impression_id=p3_1713133389_BCP%2FT9xcO7lY%2BfAk&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/53669097?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-05&amp;check_out=2024-05-10&amp;source_impression_id=p3_1713133389_eCywe0CcZ9VGUPjE&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/775342243026871446?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133389_Rg3S8bUsMKd4uDNq&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/1072352680234309026?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-24&amp;check_out=2024-04-29&amp;source_impression_id=p3_1713133389_TlAIvik0cecNEAsO&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/593948635485220235?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-15&amp;check_out=2024-04-20&amp;source_impression_id=p3_1713133389_s0kY82rUVsFMuRVR&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/48660624?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-30&amp;check_out=2024-05-05&amp;source_impression_id=p3_1713133389_6P72%2BbZ2qES%2FywAz&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/772175981555864614?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133389_ghLBL%2BaEEqmZScMM&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/938679570482994372?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-04-14&amp;check_out=2024-04-19&amp;source_impression_id=p3_1713133389_WrhJ%2F14yNgbI4kys&amp;previous_page_section_name=1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>www.airbnb.com.br/rooms/902753661350280955?adults=1&amp;children=0&amp;enable_m3_private_room=true&amp;infants=0&amp;pets=0&amp;check_in=2024-05-01&amp;check_out=2024-05-06&amp;source_impression_id=p3_1713133389_J8fkofw1nWtLELpB&amp;previous_page_section_name=1000</t>
         </is>
       </c>
     </row>
